--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_DLKhoaThuy.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_DLKhoaThuy.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="87">
   <si>
     <t>STT</t>
   </si>
@@ -265,6 +265,39 @@
   </si>
   <si>
     <t>E.2.00.---24.200624</t>
+  </si>
+  <si>
+    <t>Thiết bị chập chờn nguồn</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim+FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Set lại cấu hình, tắt ngủ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PM</t>
   </si>
 </sst>
 </file>
@@ -994,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1210,7 +1243,9 @@
       <c r="B6" s="54">
         <v>44764</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44767</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>45</v>
       </c>
@@ -1225,17 +1260,29 @@
       <c r="I6" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="K6" s="55" t="s">
         <v>75</v>
       </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>85</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
       <c r="U6" s="61" t="s">
@@ -2151,7 +2198,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -2183,7 +2230,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3248,13 +3295,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3266,6 +3306,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3277,7 +3324,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3492,7 +3539,9 @@
       <c r="B6" s="54">
         <v>44764</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44767</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>64</v>
       </c>
@@ -3509,20 +3558,34 @@
       <c r="I6" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="K6" s="55" t="s">
         <v>70</v>
       </c>
       <c r="L6" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>81</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="3"/>
+      <c r="O6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="T6" s="59"/>
       <c r="U6" s="61" t="s">
         <v>18</v>
@@ -4000,7 +4063,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -4277,7 +4340,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4405,7 +4468,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4469,7 +4532,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -5534,13 +5597,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5552,6 +5608,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5562,8 +5625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5778,7 +5841,9 @@
       <c r="B6" s="54">
         <v>44764</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44767</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>66</v>
       </c>
@@ -5796,12 +5861,22 @@
       <c r="J6" s="1"/>
       <c r="K6" s="55"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
       <c r="U6" s="61" t="s">
@@ -6216,7 +6291,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -6717,7 +6792,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -6749,7 +6824,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -7814,6 +7889,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7825,13 +7907,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9599,13 +9674,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -9617,6 +9685,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
